--- a/biology/Botanique/Fraxinus_pennsylvanica/Fraxinus_pennsylvanica.xlsx
+++ b/biology/Botanique/Fraxinus_pennsylvanica/Fraxinus_pennsylvanica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Frêne rouge ou Frêne rouge de Pennsylvanie (Fraxinus pennsylvanica) est un arbre de la famille des Oleaceae qui, en Amérique du Nord, peuple une vaste zone allant de la côte atlantique jusqu'au Colorado, à l'Alberta et au Montana à l'ouest[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Frêne rouge ou Frêne rouge de Pennsylvanie (Fraxinus pennsylvanica) est un arbre de la famille des Oleaceae qui, en Amérique du Nord, peuple une vaste zone allant de la côte atlantique jusqu'au Colorado, à l'Alberta et au Montana à l'ouest.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre de taille moyenne, généralement 12 à 25 mètres et dont le tronc reste en dessous de 60 cm de diamètre.
 L'écorce grise chez les arbres jeunes est fissurée chez les sujets plus âgés.
@@ -546,9 +560,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son habitat naturel couvre une vaste zone en Amérique du Nord. Il pousse dans tous les états à l'est des Rocheuses jusqu'à l'Alberta au nord et le Texas au sud[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat naturel couvre une vaste zone en Amérique du Nord. Il pousse dans tous les états à l'est des Rocheuses jusqu'à l'Alberta au nord et le Texas au sud.
 </t>
         </is>
       </c>
@@ -577,7 +593,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Frêne rouge est très utilisé comme arbre d'alignement au Canada, aux États-Unis et aussi en Europe et en Australie car sa forme correspond aux besoins de cette utilisation et il est très résistant à la pollution et aux maladies.
 Le bois est de qualité inférieure à celui du Frêne commun. Il est utilisé par des luthiers pour la fabrication de guitares.
